--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/LE4C_BOM_1.33_No-op_231229.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/LE4C_BOM_1.33_No-op_231229.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Dropbox\VNET_HW\1.LE4c\0. Release\LE4c_1.33_231219\LE4C_BOM_1.33_231219\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Boomlist 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248470A-280A-4117-8C1F-D92E677B068F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB52EC6-EC68-4C7C-B1AE-BD2E36FE8189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full_BOM" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2158,7 +2152,7 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2285,54 +2279,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2363,22 +2360,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2758,8 +2746,8 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2826,18 +2814,18 @@
       <c r="N1" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="49" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A2" s="74">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2858,22 +2846,22 @@
       <c r="H2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="66">
+      <c r="I2" s="67">
         <v>0</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="67" t="s">
         <v>326</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="44"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="48"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>324</v>
@@ -2890,20 +2878,20 @@
       <c r="H3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="25"/>
       <c r="L3" s="44"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="48"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A4" s="74">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2924,24 +2912,24 @@
       <c r="H4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="65">
         <v>1</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="69" t="s">
         <v>252</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="44"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="57">
+      <c r="O4" s="77">
         <v>0</v>
       </c>
-      <c r="P4" s="57"/>
+      <c r="P4" s="77"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>51</v>
@@ -2958,18 +2946,18 @@
       <c r="H5" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="1"/>
       <c r="L5" s="44"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -2986,14 +2974,14 @@
       <c r="H6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="70"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="1"/>
       <c r="L6" s="44"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
       <c r="A7" s="25">
@@ -3030,11 +3018,11 @@
       <c r="L7" s="44"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="48">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3058,7 +3046,7 @@
       <c r="H8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="25">
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -3066,10 +3054,10 @@
       <c r="L8" s="44"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="52">
+      <c r="O8" s="51">
         <v>2</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="52" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3108,11 +3096,11 @@
       <c r="L9" s="44"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="48">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -3146,11 +3134,11 @@
       <c r="L10" s="44"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="48"/>
+      <c r="O10" s="25"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A11" s="48">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -3184,11 +3172,11 @@
       <c r="L11" s="44"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3222,11 +3210,11 @@
       <c r="L12" s="44"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="48"/>
+      <c r="O12" s="25"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="42" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
@@ -3260,11 +3248,11 @@
       <c r="L13" s="44"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="48"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="25">
         <v>10</v>
       </c>
       <c r="B14" s="23" t="s">
@@ -3298,15 +3286,15 @@
       <c r="L14" s="44"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="52">
+      <c r="O14" s="51">
         <v>17</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="52" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="29" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="25">
         <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -3344,7 +3332,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A16" s="48">
+      <c r="A16" s="25">
         <v>12</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3378,14 +3366,14 @@
       <c r="L16" s="44"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="48"/>
+      <c r="O16" s="25"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A17" s="58">
+      <c r="A17" s="61">
         <v>13</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="61" t="s">
         <v>298</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3406,7 +3394,7 @@
       <c r="H17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="67">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -3416,12 +3404,12 @@
       <c r="L17" s="45"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="48"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="17" t="s">
         <v>456</v>
       </c>
@@ -3440,7 +3428,7 @@
       <c r="H18" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="17" t="s">
         <v>247</v>
       </c>
@@ -3448,7 +3436,7 @@
       <c r="L18" s="46"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="48"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3486,7 +3474,7 @@
       <c r="L19" s="45"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="48"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3564,14 +3552,14 @@
       <c r="L21" s="44"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="48"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A22" s="74">
+      <c r="A22" s="60">
         <v>17</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="55" t="s">
         <v>299</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3592,22 +3580,22 @@
       <c r="H22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="61">
         <v>1</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="61" t="s">
         <v>257</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="44"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="4" t="s">
         <v>383</v>
       </c>
@@ -3626,13 +3614,13 @@
       <c r="H23" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="1"/>
       <c r="L23" s="44"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="48"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3670,10 +3658,10 @@
       <c r="L24" s="44"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="52">
+      <c r="O24" s="51">
         <v>6</v>
       </c>
-      <c r="P24" s="53" t="s">
+      <c r="P24" s="52" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3712,7 +3700,7 @@
       <c r="L25" s="44"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="48"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3750,14 +3738,14 @@
       <c r="L26" s="44"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="48"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A27" s="58">
+      <c r="A27" s="61">
         <v>21</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="61" t="s">
         <v>301</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3778,22 +3766,22 @@
       <c r="H27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="61">
         <v>1</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="61" t="s">
         <v>266</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="44"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="48"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>67</v>
@@ -3810,13 +3798,13 @@
       <c r="H28" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="1"/>
       <c r="L28" s="44"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="48"/>
+      <c r="O28" s="25"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3854,7 +3842,7 @@
       <c r="L29" s="44"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="48"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -3892,14 +3880,14 @@
       <c r="L30" s="44"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="48"/>
+      <c r="O30" s="25"/>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:18" s="30" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A31" s="74">
+      <c r="A31" s="60">
         <v>24</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="57" t="s">
         <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3920,7 +3908,7 @@
       <c r="H31" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="65">
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3930,12 +3918,12 @@
       <c r="L31" s="44"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="51"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:18" s="29" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A32" s="74"/>
-      <c r="B32" s="78"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3954,7 +3942,7 @@
       <c r="H32" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="71"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="36" t="s">
         <v>267</v>
       </c>
@@ -3966,8 +3954,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="29" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
@@ -3986,7 +3974,7 @@
       <c r="H33" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I33" s="65"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="3" t="s">
         <v>267</v>
       </c>
@@ -4032,7 +4020,7 @@
       <c r="L34" s="44"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="48"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4070,11 +4058,11 @@
       <c r="L35" s="44"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="48"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A36" s="48">
+      <c r="A36" s="25">
         <v>27</v>
       </c>
       <c r="B36" s="23" t="s">
@@ -4108,11 +4096,11 @@
       <c r="L36" s="44"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="48"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A37" s="48">
+      <c r="A37" s="25">
         <v>28</v>
       </c>
       <c r="B37" s="23" t="s">
@@ -4146,15 +4134,15 @@
       <c r="L37" s="44"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="54">
+      <c r="O37" s="53">
         <v>2</v>
       </c>
-      <c r="P37" s="55" t="s">
+      <c r="P37" s="54" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A38" s="48">
+      <c r="A38" s="25">
         <v>29</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -4188,11 +4176,11 @@
       <c r="L38" s="44"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="48"/>
+      <c r="O38" s="25"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A39" s="48">
+      <c r="A39" s="25">
         <v>30</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -4226,11 +4214,11 @@
       <c r="L39" s="44"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="48"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A40" s="48">
+      <c r="A40" s="25">
         <v>31</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -4264,11 +4252,11 @@
       <c r="L40" s="44"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="48"/>
+      <c r="O40" s="25"/>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A41" s="48">
+      <c r="A41" s="25">
         <v>32</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -4302,11 +4290,11 @@
       <c r="L41" s="44"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="48"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A42" s="48">
+      <c r="A42" s="25">
         <v>33</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -4340,15 +4328,15 @@
       <c r="L42" s="44"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="52">
+      <c r="O42" s="51">
         <v>8</v>
       </c>
-      <c r="P42" s="53" t="s">
+      <c r="P42" s="52" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A43" s="48">
+      <c r="A43" s="25">
         <v>34</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -4382,7 +4370,7 @@
       <c r="L43" s="44"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="48"/>
+      <c r="O43" s="25"/>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" s="9" customFormat="1" ht="52.5" customHeight="1">
@@ -4420,7 +4408,7 @@
       <c r="L44" s="44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="48"/>
+      <c r="O44" s="25"/>
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4458,7 +4446,7 @@
       <c r="L45" s="44"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="48"/>
+      <c r="O45" s="25"/>
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4496,7 +4484,7 @@
       <c r="L46" s="44"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="48"/>
+      <c r="O46" s="25"/>
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4534,7 +4522,7 @@
       <c r="L47" s="44"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="48"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4572,10 +4560,10 @@
       <c r="L48" s="44"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="54">
+      <c r="O48" s="53">
         <v>1</v>
       </c>
-      <c r="P48" s="55" t="s">
+      <c r="P48" s="54" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4614,7 +4602,7 @@
       <c r="L49" s="44"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="48"/>
+      <c r="O49" s="25"/>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4652,7 +4640,7 @@
       <c r="L50" s="44"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="48"/>
+      <c r="O50" s="25"/>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4692,14 +4680,14 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="48"/>
+      <c r="O51" s="25"/>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A52" s="58">
+      <c r="A52" s="61">
         <v>43</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="61" t="s">
         <v>331</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4720,7 +4708,7 @@
       <c r="H52" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="61">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4730,12 +4718,12 @@
       <c r="L52" s="44"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="48"/>
+      <c r="O52" s="25"/>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="1"/>
       <c r="D53" s="3" t="s">
         <v>482</v>
@@ -4752,18 +4740,18 @@
       <c r="H53" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I53" s="60"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="44"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="48"/>
+      <c r="O53" s="25"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3" t="s">
         <v>483</v>
@@ -4780,13 +4768,13 @@
       <c r="H54" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I54" s="59"/>
+      <c r="I54" s="63"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="44"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="48"/>
+      <c r="O54" s="25"/>
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -4824,14 +4812,14 @@
       <c r="L55" s="44"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="48"/>
+      <c r="O55" s="25"/>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A56" s="74">
+      <c r="A56" s="60">
         <v>45</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="55" t="s">
         <v>331</v>
       </c>
       <c r="C56" s="20"/>
@@ -4850,7 +4838,7 @@
       <c r="H56" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="61">
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -4862,12 +4850,12 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="48"/>
+      <c r="O56" s="25"/>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A57" s="74"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="21"/>
       <c r="D57" s="1" t="s">
         <v>95</v>
@@ -4884,7 +4872,7 @@
       <c r="H57" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I57" s="60"/>
+      <c r="I57" s="62"/>
       <c r="J57" s="1" t="s">
         <v>286</v>
       </c>
@@ -4894,12 +4882,12 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="48"/>
+      <c r="O57" s="25"/>
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20" t="s">
         <v>95</v>
@@ -4916,7 +4904,7 @@
       <c r="H58" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="I58" s="60"/>
+      <c r="I58" s="62"/>
       <c r="J58" s="1" t="s">
         <v>286</v>
       </c>
@@ -4924,12 +4912,12 @@
       <c r="L58" s="44"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="48"/>
+      <c r="O58" s="25"/>
       <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="62"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="21"/>
       <c r="D59" s="1" t="s">
         <v>95</v>
@@ -4946,7 +4934,7 @@
       <c r="H59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I59" s="60"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="1" t="s">
         <v>286</v>
       </c>
@@ -4956,12 +4944,12 @@
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="48"/>
+      <c r="O59" s="25"/>
       <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="63"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="22"/>
       <c r="D60" s="1" t="s">
         <v>95</v>
@@ -4978,7 +4966,7 @@
       <c r="H60" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I60" s="59"/>
+      <c r="I60" s="63"/>
       <c r="J60" s="1" t="s">
         <v>286</v>
       </c>
@@ -4986,11 +4974,11 @@
       <c r="L60" s="44"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="48"/>
+      <c r="O60" s="25"/>
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A61" s="74">
+      <c r="A61" s="60">
         <v>46</v>
       </c>
       <c r="B61" s="75" t="s">
@@ -5014,7 +5002,7 @@
       <c r="H61" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I61" s="64">
+      <c r="I61" s="65">
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -5024,11 +5012,11 @@
       <c r="L61" s="44"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="51"/>
+      <c r="O61" s="50"/>
       <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" s="29" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A62" s="74"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="76"/>
       <c r="C62" s="16" t="s">
         <v>39</v>
@@ -5048,7 +5036,7 @@
       <c r="H62" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I62" s="65"/>
+      <c r="I62" s="66"/>
       <c r="J62" s="16" t="s">
         <v>287</v>
       </c>
@@ -5094,7 +5082,7 @@
       <c r="L63" s="44"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="48"/>
+      <c r="O63" s="25"/>
       <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -5130,16 +5118,16 @@
       <c r="L64" s="44"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="54">
+      <c r="O64" s="53">
         <v>0</v>
       </c>
-      <c r="P64" s="55"/>
+      <c r="P64" s="54"/>
     </row>
     <row r="65" spans="1:17" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A65" s="74">
+      <c r="A65" s="60">
         <v>49</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="55" t="s">
         <v>333</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5170,12 +5158,12 @@
       <c r="L65" s="44"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="48"/>
+      <c r="O65" s="25"/>
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:17" s="29" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>91</v>
@@ -5240,7 +5228,7 @@
       <c r="L67" s="44"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="48"/>
+      <c r="O67" s="25"/>
       <c r="P67" s="1"/>
     </row>
     <row r="68" spans="1:17" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -5278,7 +5266,7 @@
       <c r="L68" s="44"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="48"/>
+      <c r="O68" s="25"/>
       <c r="P68" s="1"/>
     </row>
     <row r="69" spans="1:17" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -5316,7 +5304,7 @@
       <c r="L69" s="44"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="48"/>
+      <c r="O69" s="25"/>
       <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:17" s="9" customFormat="1" ht="35.1" customHeight="1">
@@ -5354,7 +5342,7 @@
       <c r="L70" s="44"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="48"/>
+      <c r="O70" s="25"/>
       <c r="P70" s="1"/>
     </row>
     <row r="71" spans="1:17" s="29" customFormat="1" ht="35.1" customHeight="1">
@@ -5616,7 +5604,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="2"/>
       <c r="P77" s="3"/>
-      <c r="Q77" s="49"/>
+      <c r="Q77" s="48"/>
     </row>
     <row r="78" spans="1:17" s="29" customFormat="1" ht="35.1" customHeight="1">
       <c r="A78" s="2">
@@ -5852,19 +5840,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="I56:I60"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="I61:I62"/>
@@ -5881,12 +5862,19 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5917,11 +5905,11 @@
       <c r="A1" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32" t="s">
         <v>395</v>
@@ -6157,7 +6145,7 @@
       <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="31" t="s">
         <v>501</v>
       </c>
       <c r="C16" s="26" t="s">
